--- a/AutomatisationGlobaleInc/Rapport.xlsx
+++ b/AutomatisationGlobaleInc/Rapport.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexi\Documents\UiPath\AutomatisationGlobaleInc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D353A4-F62E-4AB1-B6D5-A1F5704B443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC64D61-460F-4CF1-BAD1-9E8C732D2336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{57BFCC35-90C2-451E-A5EB-8726D29B49D3}"/>
+    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{8B238316-3DF9-46A8-A207-CAB7321D0D42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Facture5,Facture5,Facture5" sheetId="6" r:id="rId1"/>
+    <sheet name="Facture4,Facture4,Facture4" sheetId="5" r:id="rId2"/>
+    <sheet name="Facture3,Facture3,Facture3" sheetId="4" r:id="rId3"/>
+    <sheet name="Facture2,Facture2,Facture2" sheetId="3" r:id="rId4"/>
+    <sheet name="Facture1,Facture1,Facture1" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>Nom</t>
   </si>
@@ -408,7 +413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE05B764-8E85-46A9-8B60-DBBD2B9C6DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A327C18-FF80-42FD-ACAD-D21A297FB562}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -454,4 +459,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537018B-1D58-4D3F-B4A2-DB03125A8697}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2341277-432B-4B92-8DFA-5B47D287E8B4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D7B187-F8F1-43FA-912C-CC321EAF8DB4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CFD34-C07B-499E-AD4D-3C1A869C518B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7351DDC-178E-4DF6-A7E9-4511CAE9D99F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>